--- a/biology/Zoologie/Grand_Héron/Grand_Héron.xlsx
+++ b/biology/Zoologie/Grand_Héron/Grand_Héron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_H%C3%A9ron</t>
+          <t>Grand_Héron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea herodias
 Le Grand Héron (Ardea herodias) est une espèce d'oiseaux de la famille des ardéidés (hérons et butors).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_H%C3%A9ron</t>
+          <t>Grand_Héron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus grand des hérons américains. Il mesure environ 1,20 m de haut et entre 1,08 et 1,32 m de long. Son poids oscille autour de 2,6 kg, la femelle étant légèrement moins lourde. Son envergure totale atteint entre 1,83 et 2,14 m.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_H%C3%A9ron</t>
+          <t>Grand_Héron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les habitats naturels du grand Héron sont les mangroves, les zones humides, les tourbières, les lacs, les vasières et les sebkhas.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_H%C3%A9ron</t>
+          <t>Grand_Héron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Présence au Québec</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’octobre jusqu’au début de décembre, les grands hérons quittent le Québec pour le sud des États-Unis et l'Amérique centrale[1]. Ils réapparaissent au Québec dès le début de mars. Parfois, dans l’extrême sud du Québec, il arrive que certains individus demeurent tout l’hiver près d’un cours d’eau non gelé.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’octobre jusqu’au début de décembre, les grands hérons quittent le Québec pour le sud des États-Unis et l'Amérique centrale. Ils réapparaissent au Québec dès le début de mars. Parfois, dans l’extrême sud du Québec, il arrive que certains individus demeurent tout l’hiver près d’un cours d’eau non gelé.
 On a observé des grands hérons bagués au Mexique, au Honduras et à Cuba. On en trouve des colonies en Colombie, au Venezuela et sur les îles Galápagos (Équateur).
 Les grands hérons migrent seuls ou en groupe de quelques individus (exceptionnellement jusqu’à 100 individus).
 </t>
